--- a/teaching/traditional_assets/database/data/thailand/thailand_broadcasting.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_broadcasting.xlsx
@@ -591,31 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0829</v>
-      </c>
-      <c r="E2">
-        <v>0.282</v>
-      </c>
-      <c r="F2">
-        <v>2.892</v>
+        <v>-0.0772</v>
       </c>
       <c r="G2">
-        <v>0.05794326241134752</v>
+        <v>-0.05063478004133451</v>
       </c>
       <c r="H2">
-        <v>0.05794326241134752</v>
+        <v>-0.05063478004133451</v>
       </c>
       <c r="I2">
-        <v>-0.07934275299137182</v>
+        <v>-0.1571739759132892</v>
       </c>
       <c r="J2">
-        <v>-0.06869616292964915</v>
+        <v>-0.1571739759132892</v>
       </c>
       <c r="K2">
-        <v>-15.36</v>
+        <v>-107.65</v>
       </c>
       <c r="L2">
-        <v>-0.03204005006257822</v>
+        <v>-0.3178328904635371</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -639,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>67.71000000000001</v>
+        <v>105.28</v>
       </c>
       <c r="V2">
-        <v>0.08941210648637229</v>
+        <v>0.1125267208208636</v>
       </c>
       <c r="W2">
-        <v>-0.0238817408653356</v>
+        <v>-0.2554138173822992</v>
       </c>
       <c r="X2">
-        <v>0.08379345375449634</v>
+        <v>0.06318178548876802</v>
       </c>
       <c r="Y2">
-        <v>-0.1076751946198319</v>
+        <v>-0.3185956028710673</v>
       </c>
       <c r="Z2">
-        <v>0.8209767556142524</v>
+        <v>0.589110966598915</v>
       </c>
       <c r="AA2">
-        <v>-0.06838149899920046</v>
+        <v>-0.07621042742932216</v>
       </c>
       <c r="AB2">
-        <v>0.06875959143821733</v>
+        <v>0.05565803967333459</v>
       </c>
       <c r="AC2">
-        <v>-0.1371410904374178</v>
+        <v>-0.1339943922123562</v>
       </c>
       <c r="AD2">
-        <v>165.77</v>
+        <v>193.23</v>
       </c>
       <c r="AE2">
-        <v>107.3345789203183</v>
+        <v>72.37412820915523</v>
       </c>
       <c r="AF2">
-        <v>273.1045789203183</v>
+        <v>265.6041282091552</v>
       </c>
       <c r="AG2">
-        <v>205.3945789203183</v>
+        <v>160.3241282091552</v>
       </c>
       <c r="AH2">
-        <v>0.2650511124753916</v>
+        <v>0.2211148979359051</v>
       </c>
       <c r="AI2">
-        <v>0.4001505445609662</v>
+        <v>0.4815122197715758</v>
       </c>
       <c r="AJ2">
-        <v>0.2133582660411344</v>
+        <v>0.1462912660488096</v>
       </c>
       <c r="AK2">
-        <v>0.3340865159888452</v>
+        <v>0.359210085397903</v>
       </c>
       <c r="AL2">
-        <v>8.667999999999999</v>
+        <v>7.948</v>
       </c>
       <c r="AM2">
-        <v>7.48</v>
+        <v>7.136</v>
       </c>
       <c r="AN2">
-        <v>4.920889363849557</v>
+        <v>-13.91445236552171</v>
       </c>
       <c r="AO2">
-        <v>-4.321642824180896</v>
+        <v>-7.453447408152995</v>
       </c>
       <c r="AP2">
-        <v>6.09714664174068</v>
+        <v>-11.54490733845721</v>
       </c>
       <c r="AQ2">
-        <v>-5.008021390374332</v>
+        <v>-8.301569506726457</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCOT Public Company Limited (SET:MCOT)</t>
+          <t>BEC World Public Company Limited (SET:BEC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.118</v>
-      </c>
-      <c r="E3">
-        <v>-0.391</v>
+        <v>-0.177</v>
       </c>
       <c r="G3">
-        <v>0.06719706242350061</v>
+        <v>-0.01923857868020305</v>
       </c>
       <c r="H3">
-        <v>0.06719706242350061</v>
+        <v>-0.01923857868020305</v>
       </c>
       <c r="I3">
-        <v>-0.08107605907967506</v>
+        <v>-0.08088788756743431</v>
       </c>
       <c r="J3">
-        <v>-0.04053802953983753</v>
+        <v>-0.08088788756743431</v>
       </c>
       <c r="K3">
-        <v>2.14</v>
+        <v>-23.5</v>
       </c>
       <c r="L3">
-        <v>0.02619339045287638</v>
+        <v>-0.1192893401015228</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,79 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>14.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V3">
-        <v>0.06437192668752795</v>
+        <v>0.1536453477531233</v>
       </c>
       <c r="W3">
-        <v>0.01897163120567376</v>
+        <v>-0.1220145379023884</v>
       </c>
       <c r="X3">
-        <v>0.06710497350662495</v>
+        <v>0.06007189286788144</v>
       </c>
       <c r="Y3">
-        <v>-0.04813334230095119</v>
+        <v>-0.1820864307702698</v>
       </c>
       <c r="Z3">
-        <v>0.751308789101637</v>
+        <v>0.74897946058346</v>
       </c>
       <c r="AA3">
-        <v>-0.03045657788614173</v>
+        <v>-0.06058336639799251</v>
       </c>
       <c r="AB3">
-        <v>0.06580648077592886</v>
+        <v>0.0548728760389099</v>
       </c>
       <c r="AC3">
-        <v>-0.09626305866207059</v>
+        <v>-0.1154562424369024</v>
       </c>
       <c r="AD3">
-        <v>1.7</v>
+        <v>110.9</v>
       </c>
       <c r="AE3">
-        <v>7.219570134047268</v>
+        <v>10.62456925392278</v>
       </c>
       <c r="AF3">
-        <v>8.919570134047268</v>
+        <v>121.5245692539228</v>
       </c>
       <c r="AG3">
-        <v>-5.480429865952733</v>
+        <v>39.12456925392279</v>
       </c>
       <c r="AH3">
-        <v>0.03834402294229741</v>
+        <v>0.1847370483467209</v>
       </c>
       <c r="AI3">
-        <v>0.06781933764652874</v>
+        <v>0.4286209465857125</v>
       </c>
       <c r="AJ3">
-        <v>-0.02511429136528054</v>
+        <v>0.06799252472769882</v>
       </c>
       <c r="AK3">
-        <v>-0.046793459536098</v>
+        <v>0.1945290393861698</v>
       </c>
       <c r="AL3">
-        <v>0.345</v>
+        <v>3.72</v>
       </c>
       <c r="AM3">
-        <v>-0.105</v>
+        <v>3.271</v>
       </c>
       <c r="AN3">
-        <v>0.188470066518847</v>
+        <v>-12.04125950054289</v>
       </c>
       <c r="AO3">
-        <v>-26.11594202898551</v>
+        <v>-5.134408602150538</v>
       </c>
       <c r="AP3">
-        <v>-0.6075864596399926</v>
+        <v>-4.248053122032875</v>
       </c>
       <c r="AQ3">
-        <v>85.80952380952378</v>
+        <v>-5.839192907367777</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BEC World Public Company Limited (SET:BEC)</t>
+          <t>Nation Broadcasting Corporation Public Company Limited (SET:NBC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,28 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.102</v>
-      </c>
-      <c r="F4">
-        <v>2.892</v>
+        <v>-0.00321</v>
       </c>
       <c r="G4">
-        <v>0.05669599217986315</v>
+        <v>-0.009811320754716982</v>
       </c>
       <c r="H4">
-        <v>0.05669599217986315</v>
+        <v>-0.009811320754716982</v>
       </c>
       <c r="I4">
-        <v>-0.05526074244642568</v>
+        <v>-0.0876633140696116</v>
       </c>
       <c r="J4">
-        <v>-0.05526074244642568</v>
+        <v>-0.0876633140696116</v>
       </c>
       <c r="K4">
-        <v>-13</v>
+        <v>-1.05</v>
       </c>
       <c r="L4">
-        <v>-0.04235907461713913</v>
+        <v>-0.03962264150943397</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -901,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>50.1</v>
+        <v>4.37</v>
       </c>
       <c r="V4">
-        <v>0.1271573604060914</v>
+        <v>0.1942222222222222</v>
       </c>
       <c r="W4">
-        <v>-0.06673511293634496</v>
+        <v>-0.06862745098039216</v>
       </c>
       <c r="X4">
-        <v>0.0824638339870024</v>
+        <v>0.09240379141977971</v>
       </c>
       <c r="Y4">
-        <v>-0.1491989469233473</v>
+        <v>-0.1610312424001719</v>
       </c>
       <c r="Z4">
-        <v>0.9972457648460303</v>
+        <v>0.7419770764711187</v>
       </c>
       <c r="AA4">
-        <v>-0.05510854136694526</v>
+        <v>-0.06504416948713991</v>
       </c>
       <c r="AB4">
-        <v>0.06860524500172001</v>
+        <v>0.0598374098917507</v>
       </c>
       <c r="AC4">
-        <v>-0.1237137863686653</v>
+        <v>-0.1248815793788906</v>
       </c>
       <c r="AD4">
-        <v>109.9</v>
+        <v>5.84</v>
       </c>
       <c r="AE4">
-        <v>68.74760928404019</v>
+        <v>20.41538911422354</v>
       </c>
       <c r="AF4">
-        <v>178.6476092840402</v>
+        <v>26.25538911422354</v>
       </c>
       <c r="AG4">
-        <v>128.5476092840402</v>
+        <v>21.88538911422354</v>
       </c>
       <c r="AH4">
-        <v>0.3119677902914789</v>
+        <v>0.5385125540217253</v>
       </c>
       <c r="AI4">
-        <v>0.4740579610507458</v>
+        <v>0.5946134694069773</v>
       </c>
       <c r="AJ4">
-        <v>0.2460017173557976</v>
+        <v>0.4930764278736546</v>
       </c>
       <c r="AK4">
-        <v>0.3934156077399004</v>
+        <v>0.550086089428226</v>
       </c>
       <c r="AL4">
-        <v>4.46</v>
+        <v>0.444</v>
       </c>
       <c r="AM4">
-        <v>3.735</v>
+        <v>0.434</v>
       </c>
       <c r="AN4">
-        <v>6.098779134295228</v>
+        <v>1.455270371293297</v>
       </c>
       <c r="AO4">
-        <v>-2.89237668161435</v>
+        <v>-3.693693693693693</v>
       </c>
       <c r="AP4">
-        <v>7.133607618426204</v>
+        <v>5.453623003793555</v>
       </c>
       <c r="AQ4">
-        <v>-3.453815261044177</v>
+        <v>-3.778801843317972</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mono Technology Public Company Limited (SET:MONO)</t>
+          <t>MCOT Public Company Limited (SET:MCOT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -987,25 +975,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.09210000000000002</v>
+        <v>-0.124</v>
       </c>
       <c r="G5">
-        <v>0.06230158730158731</v>
+        <v>-0.04858934169278997</v>
       </c>
       <c r="H5">
-        <v>0.06230158730158731</v>
+        <v>-0.04858934169278997</v>
       </c>
       <c r="I5">
-        <v>-0.1635658604508542</v>
+        <v>-0.1819190484015333</v>
       </c>
       <c r="J5">
-        <v>-0.1635658604508542</v>
+        <v>-0.1819190484015333</v>
       </c>
       <c r="K5">
-        <v>-17.7</v>
+        <v>-54.6</v>
       </c>
       <c r="L5">
-        <v>-0.2341269841269841</v>
+        <v>-0.8557993730407524</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1029,73 +1017,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.64</v>
+        <v>16.1</v>
       </c>
       <c r="V5">
-        <v>0.01251908396946565</v>
+        <v>0.165979381443299</v>
       </c>
       <c r="W5">
-        <v>-0.2043879907621247</v>
+        <v>-0.4428223844282239</v>
       </c>
       <c r="X5">
-        <v>0.08512307352199031</v>
+        <v>0.06348982638630897</v>
       </c>
       <c r="Y5">
-        <v>-0.289511064284115</v>
+        <v>-0.5063122108145328</v>
       </c>
       <c r="Z5">
-        <v>0.4992145451769865</v>
+        <v>0.4803053123862313</v>
       </c>
       <c r="AA5">
-        <v>-0.08165445663145564</v>
+        <v>-0.08737668537150441</v>
       </c>
       <c r="AB5">
-        <v>0.06891393787471466</v>
+        <v>0.05573051967431746</v>
       </c>
       <c r="AC5">
-        <v>-0.1505683945061703</v>
+        <v>-0.1431072050458219</v>
       </c>
       <c r="AD5">
-        <v>52.6</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AE5">
-        <v>16.17789525042287</v>
+        <v>22.23217644008913</v>
       </c>
       <c r="AF5">
-        <v>68.77789525042287</v>
+        <v>31.62217644008913</v>
       </c>
       <c r="AG5">
-        <v>67.13789525042287</v>
+        <v>15.52217644008913</v>
       </c>
       <c r="AH5">
-        <v>0.3442717982598091</v>
+        <v>0.2458532215462736</v>
       </c>
       <c r="AI5">
-        <v>0.4840858258013797</v>
+        <v>0.332088360319981</v>
       </c>
       <c r="AJ5">
-        <v>0.3388442940991601</v>
+        <v>0.1379477088976651</v>
       </c>
       <c r="AK5">
-        <v>0.478061104025416</v>
+        <v>0.1961798466431523</v>
       </c>
       <c r="AL5">
-        <v>3.74</v>
+        <v>0.074</v>
       </c>
       <c r="AM5">
-        <v>3.74</v>
+        <v>-0.279</v>
       </c>
       <c r="AN5">
-        <v>14.77528089887641</v>
+        <v>5.335227272727273</v>
       </c>
       <c r="AO5">
-        <v>-3.689839572192513</v>
+        <v>-175.6756756756757</v>
       </c>
       <c r="AP5">
-        <v>18.85895934000643</v>
+        <v>8.819418431868822</v>
       </c>
       <c r="AQ5">
-        <v>-3.689839572192513</v>
+        <v>46.59498207885305</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nation Broadcasting Corporation Public Company Limited (SET:NBC)</t>
+          <t>Mono Next Public Company Limited (SET:MONO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,28 +1103,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0638</v>
-      </c>
-      <c r="E6">
-        <v>0.955</v>
+        <v>-0.0304</v>
       </c>
       <c r="G6">
-        <v>0.01171052631578947</v>
+        <v>-0.1945525291828794</v>
       </c>
       <c r="H6">
-        <v>0.01171052631578947</v>
+        <v>-0.1945525291828794</v>
       </c>
       <c r="I6">
-        <v>-0.1373618980501042</v>
+        <v>-0.4546770171242015</v>
       </c>
       <c r="J6">
-        <v>-0.1323153413608721</v>
+        <v>-0.4546770171242015</v>
       </c>
       <c r="K6">
-        <v>13.2</v>
+        <v>-28.5</v>
       </c>
       <c r="L6">
-        <v>0.868421052631579</v>
+        <v>-0.5544747081712063</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1145,7 +1130,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1154,79 +1139,79 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.57</v>
+        <v>2.41</v>
       </c>
       <c r="V6">
-        <v>0.182983682983683</v>
+        <v>0.008613295210864904</v>
       </c>
       <c r="W6">
-        <v>8.461538461538462</v>
+        <v>-0.3888130968622101</v>
       </c>
       <c r="X6">
-        <v>0.1381691345510972</v>
+        <v>0.06287374459122705</v>
       </c>
       <c r="Y6">
-        <v>8.323369326987365</v>
+        <v>-0.4516868414534372</v>
       </c>
       <c r="Z6">
-        <v>0.9494360200618642</v>
+        <v>0.3585329610774666</v>
       </c>
       <c r="AA6">
-        <v>-0.1256249510947934</v>
+        <v>-0.16301669728341</v>
       </c>
       <c r="AB6">
-        <v>0.07194435693231185</v>
+        <v>0.05558555967235172</v>
       </c>
       <c r="AC6">
-        <v>-0.1975693080271052</v>
+        <v>-0.2186022569557617</v>
       </c>
       <c r="AD6">
-        <v>1.57</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="AE6">
-        <v>15.18950425180792</v>
+        <v>19.10199340091979</v>
       </c>
       <c r="AF6">
-        <v>16.75950425180791</v>
+        <v>86.20199340091978</v>
       </c>
       <c r="AG6">
-        <v>15.18950425180791</v>
+        <v>83.79199340091978</v>
       </c>
       <c r="AH6">
-        <v>0.6613982690925045</v>
+        <v>0.2355232893676998</v>
       </c>
       <c r="AI6">
-        <v>0.5227624270223331</v>
+        <v>0.6697797844699407</v>
       </c>
       <c r="AJ6">
-        <v>0.6390332794026445</v>
+        <v>0.2304561016791296</v>
       </c>
       <c r="AK6">
-        <v>0.4981879707311815</v>
+        <v>0.6634782708268625</v>
       </c>
       <c r="AL6">
-        <v>0.123</v>
+        <v>3.71</v>
       </c>
       <c r="AM6">
-        <v>0.11</v>
+        <v>3.71</v>
       </c>
       <c r="AN6">
-        <v>0.5085843861354066</v>
+        <v>-6.421052631578947</v>
       </c>
       <c r="AO6">
-        <v>-14.22764227642277</v>
+        <v>-6.873315363881401</v>
       </c>
       <c r="AP6">
-        <v>4.920474328412022</v>
+        <v>-8.018372574250698</v>
       </c>
       <c r="AQ6">
-        <v>-15.90909090909091</v>
+        <v>-6.873315363881401</v>
       </c>
     </row>
   </sheetData>
